--- a/unchained-flight-insurance-web/bayesValidation.xlsx
+++ b/unchained-flight-insurance-web/bayesValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\git\unchained-flight-insurance\unchained-flight-insurance-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{06F4EE64-41E0-4058-8879-DE4E7AF92A75}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{333FE320-1661-4885-B059-E8966A192E54}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10233" activeTab="2"/>
   </bookViews>

--- a/unchained-flight-insurance-web/bayesValidation.xlsx
+++ b/unchained-flight-insurance-web/bayesValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\git\unchained-flight-insurance\unchained-flight-insurance-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{333FE320-1661-4885-B059-E8966A192E54}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{ECC4613F-8499-4FEA-BAB5-9220ABCBACD4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10233" activeTab="2"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11684" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11685" uniqueCount="85">
   <si>
     <t>companyName</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>InsuredAmount</t>
+  </si>
+  <si>
+    <t>cumulative number of flights [%]</t>
   </si>
 </sst>
 </file>
@@ -2348,6 +2351,1198 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Coverage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> variants</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphics!$F$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ultimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphics!$C$45:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphics!$F$45:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1685.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2565.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3445.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6085</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7845.0000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C85-4B5E-A08C-2A6CFDBDC68D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphics!$G$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphics!$C$45:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphics!$G$45:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>425.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>645.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>865.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1965.0000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C85-4B5E-A08C-2A6CFDBDC68D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphics!$H$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphics!$C$45:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphics!$H$45:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>495.00000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C85-4B5E-A08C-2A6CFDBDC68D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="248204016"/>
+        <c:axId val="866921584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="248204016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Probability of being late</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="866921584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="866921584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Premium amount [CHF]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="248204016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cumulative number of flights with delay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphics!$D$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of occurrences</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphics!$C$46:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphics!$E$46:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.63528077141236527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79410096426545662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89761769710720363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96653431650595578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98638684061259219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98638684061259219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99404424276800907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99404424276800907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99404424276800907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC43-4E6D-9B81-54F3F29D5F57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1724191520"/>
+        <c:axId val="257347296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1724191520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Delay probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44320013123359586"/>
+              <c:y val="0.88331000291630213"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257347296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="257347296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Flights</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> with delay</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724191520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2429,6 +3624,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3977,6 +5252,1025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4084,6 +6378,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132838</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>15181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>208746</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>43208</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9269E1-31B1-4664-B385-065B89E4C8DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>391218</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>43794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>458951</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>56494</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BC8D9B-2327-4D53-82E7-3BF858A39799}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4495,10 +6863,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D3538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="P107" sqref="P107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4520,7 +6889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4534,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4548,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4562,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4576,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4604,7 +6973,7 @@
         <v>1.51515151515151E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4618,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4632,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4660,7 +7029,7 @@
         <v>7.3170731707316999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4674,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4688,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -4702,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4716,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -4730,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -4744,7 +7113,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4758,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4772,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4786,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4800,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -4814,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4828,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4842,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4870,7 +7239,7 @@
         <v>0.133333333333333</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4884,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -4912,7 +7281,7 @@
         <v>0.214285714285714</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -4926,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4940,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4954,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -4968,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4982,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -4996,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -5010,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -5024,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -5038,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -5052,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -5066,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -5080,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -5094,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -5108,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -5122,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -5136,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -5164,7 +7533,7 @@
         <v>5.5555555555555497E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -5178,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -5192,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -5206,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -5220,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -5234,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -5248,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -5276,7 +7645,7 @@
         <v>0.22857142857142801</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -5290,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -5304,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -5318,7 +7687,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -5332,7 +7701,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -5346,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -5360,7 +7729,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -5374,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -5388,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -5402,7 +7771,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -5416,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -5430,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -5458,7 +7827,7 @@
         <v>0.23076923076923</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -5472,7 +7841,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -5486,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -5500,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -5528,7 +7897,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -5542,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -5556,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -5570,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -5584,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -5598,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -5612,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -5626,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -5640,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -5654,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -5682,7 +8051,7 @@
         <v>3.5087719298245598E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -5696,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -5724,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -5738,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -5752,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -5766,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -5780,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -5794,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -5808,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -5822,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -5836,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -5850,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -5864,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -5878,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -5892,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -5906,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -5920,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -5934,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -5948,7 +8317,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -5962,7 +8331,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -5976,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -6004,7 +8373,7 @@
         <v>5.5555555555555497E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>31</v>
       </c>
@@ -6018,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>28</v>
       </c>
@@ -6032,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>47</v>
       </c>
@@ -6060,7 +8429,7 @@
         <v>0.19565217391304299</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>32</v>
       </c>
@@ -6074,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -6088,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -6102,7 +8471,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>48</v>
       </c>
@@ -6116,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>49</v>
       </c>
@@ -6130,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -6144,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>35</v>
       </c>
@@ -6158,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>50</v>
       </c>
@@ -6172,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -6186,7 +8555,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -6200,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -6228,7 +8597,7 @@
         <v>9.5238095238095205E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -6242,7 +8611,7 @@
         <v>0.11111111111111099</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -6256,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -6270,7 +8639,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -6284,7 +8653,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -6298,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -6326,7 +8695,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -6340,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>23</v>
       </c>
@@ -6354,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>28</v>
       </c>
@@ -6368,7 +8737,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -6382,7 +8751,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -6396,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>51</v>
       </c>
@@ -6410,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -6424,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
         <v>42</v>
       </c>
@@ -6438,7 +8807,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
         <v>21</v>
       </c>
@@ -6452,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -6466,7 +8835,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
         <v>52</v>
       </c>
@@ -6480,7 +8849,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -6508,7 +8877,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -6522,7 +8891,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
         <v>27</v>
       </c>
@@ -6536,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -6564,7 +8933,7 @@
         <v>0.27777777777777701</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -6578,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -6592,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -6606,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -6620,7 +8989,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -6634,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
         <v>25</v>
       </c>
@@ -6648,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -6662,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -6676,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -6690,7 +9059,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -6704,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
         <v>30</v>
       </c>
@@ -6732,7 +9101,7 @@
         <v>4.3478260869565202E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -6746,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -6774,7 +9143,7 @@
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -6788,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -6802,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -6816,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -6830,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -6844,7 +9213,7 @@
         <v>0.11111111111111099</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -6858,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
         <v>46</v>
       </c>
@@ -6872,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -6886,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
         <v>24</v>
       </c>
@@ -6900,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -6914,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
         <v>25</v>
       </c>
@@ -6928,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -6942,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -6956,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
         <v>28</v>
       </c>
@@ -6984,7 +9353,7 @@
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
         <v>30</v>
       </c>
@@ -6998,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -7012,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -7040,7 +9409,7 @@
         <v>0.19047619047618999</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -7054,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
         <v>31</v>
       </c>
@@ -7068,7 +9437,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
         <v>28</v>
       </c>
@@ -7082,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -7096,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -7110,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -7124,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
         <v>26</v>
       </c>
@@ -7138,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A189" t="s">
         <v>35</v>
       </c>
@@ -7152,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
         <v>22</v>
       </c>
@@ -7166,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
         <v>40</v>
       </c>
@@ -7180,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
         <v>37</v>
       </c>
@@ -7194,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
         <v>38</v>
       </c>
@@ -7208,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -7236,7 +9605,7 @@
         <v>2.1739130434782601E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -7250,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -7264,7 +9633,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -7278,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -7292,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
         <v>30</v>
       </c>
@@ -7306,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -7334,7 +9703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
         <v>25</v>
       </c>
@@ -7348,7 +9717,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
         <v>28</v>
       </c>
@@ -7362,7 +9731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
         <v>23</v>
       </c>
@@ -7376,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
         <v>18</v>
       </c>
@@ -7390,7 +9759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -7404,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
         <v>41</v>
       </c>
@@ -7418,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
         <v>20</v>
       </c>
@@ -7432,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
         <v>29</v>
       </c>
@@ -7446,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -7460,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -7488,7 +9857,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -7502,7 +9871,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -7516,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -7530,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
         <v>30</v>
       </c>
@@ -7544,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -7572,7 +9941,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -7586,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -7600,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
         <v>26</v>
       </c>
@@ -7614,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -7628,7 +9997,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -7642,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A225" t="s">
         <v>25</v>
       </c>
@@ -7656,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -7670,7 +10039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -7684,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A228" t="s">
         <v>30</v>
       </c>
@@ -7712,7 +10081,7 @@
         <v>6.9767441860465101E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A230" t="s">
         <v>14</v>
       </c>
@@ -7726,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -7754,7 +10123,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A233" t="s">
         <v>16</v>
       </c>
@@ -7768,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A234" t="s">
         <v>37</v>
       </c>
@@ -7782,7 +10151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -7796,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A236" t="s">
         <v>18</v>
       </c>
@@ -7810,7 +10179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A237" t="s">
         <v>42</v>
       </c>
@@ -7824,7 +10193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -7838,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A239" t="s">
         <v>20</v>
       </c>
@@ -7852,7 +10221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A240" t="s">
         <v>45</v>
       </c>
@@ -7866,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A241" t="s">
         <v>46</v>
       </c>
@@ -7880,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A242" t="s">
         <v>41</v>
       </c>
@@ -7894,7 +10263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A243" t="s">
         <v>21</v>
       </c>
@@ -7908,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A244" t="s">
         <v>22</v>
       </c>
@@ -7922,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A245" t="s">
         <v>23</v>
       </c>
@@ -7936,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A246" t="s">
         <v>25</v>
       </c>
@@ -7950,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A247" t="s">
         <v>26</v>
       </c>
@@ -7964,7 +10333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A248" t="s">
         <v>27</v>
       </c>
@@ -7978,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A249" t="s">
         <v>28</v>
       </c>
@@ -7992,7 +10361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A250" t="s">
         <v>19</v>
       </c>
@@ -8006,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A251" t="s">
         <v>18</v>
       </c>
@@ -8020,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -8048,7 +10417,7 @@
         <v>0.314285714285714</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A254" t="s">
         <v>16</v>
       </c>
@@ -8062,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A255" t="s">
         <v>31</v>
       </c>
@@ -8090,7 +10459,7 @@
         <v>0.32258064516128998</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A257" t="s">
         <v>32</v>
       </c>
@@ -8104,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -8118,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A259" t="s">
         <v>13</v>
       </c>
@@ -8132,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A260" t="s">
         <v>49</v>
       </c>
@@ -8146,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A261" t="s">
         <v>52</v>
       </c>
@@ -8160,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A262" t="s">
         <v>26</v>
       </c>
@@ -8174,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A263" t="s">
         <v>35</v>
       </c>
@@ -8188,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A264" t="s">
         <v>36</v>
       </c>
@@ -8202,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A265" t="s">
         <v>37</v>
       </c>
@@ -8216,7 +10585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A266" t="s">
         <v>38</v>
       </c>
@@ -8230,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -8244,7 +10613,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A268" t="s">
         <v>15</v>
       </c>
@@ -8258,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A269" t="s">
         <v>14</v>
       </c>
@@ -8272,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A270" t="s">
         <v>40</v>
       </c>
@@ -8286,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -8300,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -8314,7 +10683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -8328,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -8342,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A275" t="s">
         <v>30</v>
       </c>
@@ -8356,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A276" t="s">
         <v>23</v>
       </c>
@@ -8370,7 +10739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -8384,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A278" t="s">
         <v>25</v>
       </c>
@@ -8398,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A279" t="s">
         <v>51</v>
       </c>
@@ -8412,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A280" t="s">
         <v>28</v>
       </c>
@@ -8426,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A281" t="s">
         <v>18</v>
       </c>
@@ -8440,7 +10809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A282" t="s">
         <v>26</v>
       </c>
@@ -8454,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A283" t="s">
         <v>20</v>
       </c>
@@ -8468,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A284" t="s">
         <v>21</v>
       </c>
@@ -8482,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A285" t="s">
         <v>37</v>
       </c>
@@ -8496,7 +10865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A286" t="s">
         <v>32</v>
       </c>
@@ -8510,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -8524,7 +10893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A288" t="s">
         <v>15</v>
       </c>
@@ -8538,7 +10907,7 @@
         <v>3.8461538461538401E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A289" t="s">
         <v>8</v>
       </c>
@@ -8552,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A290" t="s">
         <v>27</v>
       </c>
@@ -8566,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A291" t="s">
         <v>30</v>
       </c>
@@ -8580,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -8594,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -8608,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A294" t="s">
         <v>14</v>
       </c>
@@ -8622,7 +10991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A295" t="s">
         <v>26</v>
       </c>
@@ -8636,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A296" t="s">
         <v>16</v>
       </c>
@@ -8650,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A297" t="s">
         <v>13</v>
       </c>
@@ -8664,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A298" t="s">
         <v>25</v>
       </c>
@@ -8678,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A299" t="s">
         <v>28</v>
       </c>
@@ -8692,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -8706,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -8720,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -8734,7 +11103,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A303" t="s">
         <v>10</v>
       </c>
@@ -8748,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A304" t="s">
         <v>30</v>
       </c>
@@ -8762,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A305" t="s">
         <v>15</v>
       </c>
@@ -8776,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A306" t="s">
         <v>14</v>
       </c>
@@ -8790,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A307" t="s">
         <v>13</v>
       </c>
@@ -8804,7 +11173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -8818,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A309" t="s">
         <v>16</v>
       </c>
@@ -8832,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A310" t="s">
         <v>37</v>
       </c>
@@ -8846,7 +11215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -8860,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A312" t="s">
         <v>18</v>
       </c>
@@ -8874,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -8888,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A314" t="s">
         <v>20</v>
       </c>
@@ -8902,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A315" t="s">
         <v>46</v>
       </c>
@@ -8916,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A316" t="s">
         <v>50</v>
       </c>
@@ -8930,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A317" t="s">
         <v>21</v>
       </c>
@@ -8944,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A318" t="s">
         <v>23</v>
       </c>
@@ -8958,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A319" t="s">
         <v>24</v>
       </c>
@@ -8972,7 +11341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A320" t="s">
         <v>25</v>
       </c>
@@ -8986,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A321" t="s">
         <v>26</v>
       </c>
@@ -9000,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A322" t="s">
         <v>27</v>
       </c>
@@ -9014,7 +11383,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A323" t="s">
         <v>28</v>
       </c>
@@ -9028,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A324" t="s">
         <v>15</v>
       </c>
@@ -9042,7 +11411,7 @@
         <v>0.217391304347826</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A325" t="s">
         <v>15</v>
       </c>
@@ -9056,7 +11425,7 @@
         <v>5.2631578947368397E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A326" t="s">
         <v>19</v>
       </c>
@@ -9070,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A327" t="s">
         <v>30</v>
       </c>
@@ -9084,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A328" t="s">
         <v>14</v>
       </c>
@@ -9098,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A329" t="s">
         <v>16</v>
       </c>
@@ -9112,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A330" t="s">
         <v>31</v>
       </c>
@@ -9126,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A331" t="s">
         <v>28</v>
       </c>
@@ -9140,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A332" t="s">
         <v>32</v>
       </c>
@@ -9154,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A333" t="s">
         <v>13</v>
       </c>
@@ -9168,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A334" t="s">
         <v>23</v>
       </c>
@@ -9182,7 +11551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A335" t="s">
         <v>33</v>
       </c>
@@ -9196,7 +11565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A336" t="s">
         <v>34</v>
       </c>
@@ -9210,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A337" t="s">
         <v>57</v>
       </c>
@@ -9224,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A338" t="s">
         <v>26</v>
       </c>
@@ -9238,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A339" t="s">
         <v>35</v>
       </c>
@@ -9252,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A340" t="s">
         <v>36</v>
       </c>
@@ -9266,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A341" t="s">
         <v>12</v>
       </c>
@@ -9280,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A342" t="s">
         <v>18</v>
       </c>
@@ -9294,7 +11663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A343" t="s">
         <v>22</v>
       </c>
@@ -9308,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A344" t="s">
         <v>58</v>
       </c>
@@ -9322,7 +11691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A345" t="s">
         <v>37</v>
       </c>
@@ -9336,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A346" t="s">
         <v>38</v>
       </c>
@@ -9350,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A347" t="s">
         <v>16</v>
       </c>
@@ -9364,7 +11733,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A348" t="s">
         <v>15</v>
       </c>
@@ -9378,7 +11747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -9392,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A350" t="s">
         <v>13</v>
       </c>
@@ -9406,7 +11775,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A351" t="s">
         <v>8</v>
       </c>
@@ -9420,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A352" t="s">
         <v>19</v>
       </c>
@@ -9434,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A353" t="s">
         <v>17</v>
       </c>
@@ -9448,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A354" t="s">
         <v>30</v>
       </c>
@@ -9462,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A355" t="s">
         <v>15</v>
       </c>
@@ -9476,7 +11845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A356" t="s">
         <v>25</v>
       </c>
@@ -9490,7 +11859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A357" t="s">
         <v>29</v>
       </c>
@@ -9504,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A358" t="s">
         <v>23</v>
       </c>
@@ -9518,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A359" t="s">
         <v>28</v>
       </c>
@@ -9532,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A360" t="s">
         <v>18</v>
       </c>
@@ -9546,7 +11915,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A361" t="s">
         <v>26</v>
       </c>
@@ -9560,7 +11929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A362" t="s">
         <v>41</v>
       </c>
@@ -9574,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A363" t="s">
         <v>22</v>
       </c>
@@ -9588,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A364" t="s">
         <v>20</v>
       </c>
@@ -9602,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A365" t="s">
         <v>21</v>
       </c>
@@ -9616,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A366" t="s">
         <v>37</v>
       </c>
@@ -9630,7 +11999,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A367" t="s">
         <v>32</v>
       </c>
@@ -9644,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A368" t="s">
         <v>15</v>
       </c>
@@ -9658,7 +12027,7 @@
         <v>0.214285714285714</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A369" t="s">
         <v>19</v>
       </c>
@@ -9672,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A370" t="s">
         <v>8</v>
       </c>
@@ -9686,7 +12055,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A371" t="s">
         <v>27</v>
       </c>
@@ -9700,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A372" t="s">
         <v>30</v>
       </c>
@@ -9714,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A373" t="s">
         <v>15</v>
       </c>
@@ -9728,7 +12097,7 @@
         <v>0.214285714285714</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A374" t="s">
         <v>23</v>
       </c>
@@ -9742,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A375" t="s">
         <v>17</v>
       </c>
@@ -9756,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -9770,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A377" t="s">
         <v>26</v>
       </c>
@@ -9784,7 +12153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A378" t="s">
         <v>16</v>
       </c>
@@ -9798,7 +12167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A379" t="s">
         <v>13</v>
       </c>
@@ -9812,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A380" t="s">
         <v>25</v>
       </c>
@@ -9826,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A381" t="s">
         <v>28</v>
       </c>
@@ -9840,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A382" t="s">
         <v>4</v>
       </c>
@@ -9854,7 +12223,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A383" t="s">
         <v>8</v>
       </c>
@@ -9868,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -9882,7 +12251,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A385" t="s">
         <v>10</v>
       </c>
@@ -9896,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A386" t="s">
         <v>15</v>
       </c>
@@ -9910,7 +12279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A387" t="s">
         <v>13</v>
       </c>
@@ -9924,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A388" t="s">
         <v>14</v>
       </c>
@@ -9938,7 +12307,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A389" t="s">
         <v>15</v>
       </c>
@@ -9952,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A390" t="s">
         <v>16</v>
       </c>
@@ -9966,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A391" t="s">
         <v>37</v>
       </c>
@@ -9980,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A392" t="s">
         <v>17</v>
       </c>
@@ -9994,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A393" t="s">
         <v>18</v>
       </c>
@@ -10008,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A394" t="s">
         <v>19</v>
       </c>
@@ -10022,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A395" t="s">
         <v>20</v>
       </c>
@@ -10036,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A396" t="s">
         <v>46</v>
       </c>
@@ -10050,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A397" t="s">
         <v>41</v>
       </c>
@@ -10064,7 +12433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A398" t="s">
         <v>22</v>
       </c>
@@ -10078,7 +12447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A399" t="s">
         <v>23</v>
       </c>
@@ -10092,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A400" t="s">
         <v>24</v>
       </c>
@@ -10106,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A401" t="s">
         <v>29</v>
       </c>
@@ -10120,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A402" t="s">
         <v>25</v>
       </c>
@@ -10134,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A403" t="s">
         <v>26</v>
       </c>
@@ -10148,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A404" t="s">
         <v>27</v>
       </c>
@@ -10162,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A405" t="s">
         <v>28</v>
       </c>
@@ -10176,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A406" t="s">
         <v>29</v>
       </c>
@@ -10190,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A407" t="s">
         <v>15</v>
       </c>
@@ -10204,7 +12573,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A408" t="s">
         <v>19</v>
       </c>
@@ -10218,7 +12587,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A409" t="s">
         <v>14</v>
       </c>
@@ -10232,7 +12601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A410" t="s">
         <v>31</v>
       </c>
@@ -10246,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A411" t="s">
         <v>28</v>
       </c>
@@ -10260,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A412" t="s">
         <v>47</v>
       </c>
@@ -10274,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A413" t="s">
         <v>15</v>
       </c>
@@ -10288,7 +12657,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A414" t="s">
         <v>60</v>
       </c>
@@ -10302,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A415" t="s">
         <v>61</v>
       </c>
@@ -10316,7 +12685,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A416" t="s">
         <v>32</v>
       </c>
@@ -10330,7 +12699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A417" t="s">
         <v>16</v>
       </c>
@@ -10344,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -10358,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A419" t="s">
         <v>13</v>
       </c>
@@ -10372,7 +12741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A420" t="s">
         <v>48</v>
       </c>
@@ -10386,7 +12755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A421" t="s">
         <v>49</v>
       </c>
@@ -10400,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A422" t="s">
         <v>26</v>
       </c>
@@ -10414,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A423" t="s">
         <v>35</v>
       </c>
@@ -10428,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A424" t="s">
         <v>36</v>
       </c>
@@ -10442,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A425" t="s">
         <v>38</v>
       </c>
@@ -10456,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A426" t="s">
         <v>57</v>
       </c>
@@ -10470,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A427" t="s">
         <v>16</v>
       </c>
@@ -10484,7 +12853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A428" t="s">
         <v>15</v>
       </c>
@@ -10498,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A429" t="s">
         <v>15</v>
       </c>
@@ -10512,7 +12881,7 @@
         <v>0.11111111111111099</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A430" t="s">
         <v>40</v>
       </c>
@@ -10526,7 +12895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A431" t="s">
         <v>13</v>
       </c>
@@ -10540,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A432" t="s">
         <v>62</v>
       </c>
@@ -10554,7 +12923,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A433" t="s">
         <v>25</v>
       </c>
@@ -10568,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A434" t="s">
         <v>14</v>
       </c>
@@ -10582,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A435" t="s">
         <v>51</v>
       </c>
@@ -10596,7 +12965,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A436" t="s">
         <v>23</v>
       </c>
@@ -10610,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A437" t="s">
         <v>28</v>
       </c>
@@ -10624,7 +12993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A438" t="s">
         <v>18</v>
       </c>
@@ -10638,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A439" t="s">
         <v>26</v>
       </c>
@@ -10652,7 +13021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A440" t="s">
         <v>41</v>
       </c>
@@ -10666,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A441" t="s">
         <v>19</v>
       </c>
@@ -10680,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A442" t="s">
         <v>20</v>
       </c>
@@ -10694,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A443" t="s">
         <v>17</v>
       </c>
@@ -10708,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A444" t="s">
         <v>32</v>
       </c>
@@ -10722,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A445" t="s">
         <v>15</v>
       </c>
@@ -10736,7 +13105,7 @@
         <v>0.35294117647058798</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A446" t="s">
         <v>19</v>
       </c>
@@ -10750,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A447" t="s">
         <v>27</v>
       </c>
@@ -10764,7 +13133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A448" t="s">
         <v>23</v>
       </c>
@@ -10778,7 +13147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A449" t="s">
         <v>15</v>
       </c>
@@ -10792,7 +13161,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A450" t="s">
         <v>8</v>
       </c>
@@ -10806,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A451" t="s">
         <v>14</v>
       </c>
@@ -10820,7 +13189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A452" t="s">
         <v>16</v>
       </c>
@@ -10834,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A453" t="s">
         <v>26</v>
       </c>
@@ -10848,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A454" t="s">
         <v>13</v>
       </c>
@@ -10862,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A455" t="s">
         <v>25</v>
       </c>
@@ -10876,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A456" t="s">
         <v>28</v>
       </c>
@@ -10890,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -10904,7 +13273,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A458" t="s">
         <v>10</v>
       </c>
@@ -10918,7 +13287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A459" t="s">
         <v>15</v>
       </c>
@@ -10932,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A460" t="s">
         <v>13</v>
       </c>
@@ -10946,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A461" t="s">
         <v>14</v>
       </c>
@@ -10960,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A462" t="s">
         <v>15</v>
       </c>
@@ -10974,7 +13343,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A463" t="s">
         <v>16</v>
       </c>
@@ -10988,7 +13357,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A464" t="s">
         <v>17</v>
       </c>
@@ -11002,7 +13371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A465" t="s">
         <v>18</v>
       </c>
@@ -11016,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A466" t="s">
         <v>19</v>
       </c>
@@ -11030,7 +13399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A467" t="s">
         <v>45</v>
       </c>
@@ -11044,7 +13413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A468" t="s">
         <v>21</v>
       </c>
@@ -11058,7 +13427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A469" t="s">
         <v>20</v>
       </c>
@@ -11072,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A470" t="s">
         <v>52</v>
       </c>
@@ -11086,7 +13455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A471" t="s">
         <v>46</v>
       </c>
@@ -11100,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A472" t="s">
         <v>50</v>
       </c>
@@ -11114,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A473" t="s">
         <v>24</v>
       </c>
@@ -11128,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A474" t="s">
         <v>23</v>
       </c>
@@ -11142,7 +13511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A475" t="s">
         <v>8</v>
       </c>
@@ -11156,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A476" t="s">
         <v>64</v>
       </c>
@@ -11170,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A477" t="s">
         <v>25</v>
       </c>
@@ -11184,7 +13553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A478" t="s">
         <v>26</v>
       </c>
@@ -11198,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A479" t="s">
         <v>27</v>
       </c>
@@ -11212,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A480" t="s">
         <v>28</v>
       </c>
@@ -11226,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A481" t="s">
         <v>15</v>
       </c>
@@ -11240,7 +13609,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A482" t="s">
         <v>19</v>
       </c>
@@ -11254,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A483" t="s">
         <v>15</v>
       </c>
@@ -11268,7 +13637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A484" t="s">
         <v>14</v>
       </c>
@@ -11282,7 +13651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A485" t="s">
         <v>31</v>
       </c>
@@ -11296,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A486" t="s">
         <v>28</v>
       </c>
@@ -11310,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A487" t="s">
         <v>32</v>
       </c>
@@ -11324,7 +13693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A488" t="s">
         <v>16</v>
       </c>
@@ -11338,7 +13707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -11352,7 +13721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A490" t="s">
         <v>13</v>
       </c>
@@ -11366,7 +13735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A491" t="s">
         <v>65</v>
       </c>
@@ -11380,7 +13749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A492" t="s">
         <v>23</v>
       </c>
@@ -11394,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A493" t="s">
         <v>48</v>
       </c>
@@ -11408,7 +13777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A494" t="s">
         <v>49</v>
       </c>
@@ -11422,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A495" t="s">
         <v>26</v>
       </c>
@@ -11436,7 +13805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A496" t="s">
         <v>35</v>
       </c>
@@ -11450,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A497" t="s">
         <v>18</v>
       </c>
@@ -11464,7 +13833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A498" t="s">
         <v>22</v>
       </c>
@@ -11478,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A499" t="s">
         <v>38</v>
       </c>
@@ -11492,7 +13861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A500" t="s">
         <v>16</v>
       </c>
@@ -11506,7 +13875,7 @@
         <v>0.11111111111111099</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A501" t="s">
         <v>15</v>
       </c>
@@ -11520,7 +13889,7 @@
         <v>8.3333333333333301E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A502" t="s">
         <v>15</v>
       </c>
@@ -11534,7 +13903,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A503" t="s">
         <v>14</v>
       </c>
@@ -11548,7 +13917,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A504" t="s">
         <v>40</v>
       </c>
@@ -11562,7 +13931,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A505" t="s">
         <v>8</v>
       </c>
@@ -11576,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A506" t="s">
         <v>30</v>
       </c>
@@ -11590,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -11604,7 +13973,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A508" t="s">
         <v>19</v>
       </c>
@@ -11618,7 +13987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A509" t="s">
         <v>17</v>
       </c>
@@ -11632,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A510" t="s">
         <v>23</v>
       </c>
@@ -11646,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A511" t="s">
         <v>25</v>
       </c>
@@ -11660,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A512" t="s">
         <v>29</v>
       </c>
@@ -11674,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A513" t="s">
         <v>28</v>
       </c>
@@ -11688,7 +14057,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A514" t="s">
         <v>18</v>
       </c>
@@ -11702,7 +14071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A515" t="s">
         <v>26</v>
       </c>
@@ -11716,7 +14085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A516" t="s">
         <v>41</v>
       </c>
@@ -11730,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A517" t="s">
         <v>21</v>
       </c>
@@ -11744,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A518" t="s">
         <v>20</v>
       </c>
@@ -11758,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A519" t="s">
         <v>37</v>
       </c>
@@ -11772,7 +14141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A520" t="s">
         <v>32</v>
       </c>
@@ -11786,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A521" t="s">
         <v>19</v>
       </c>
@@ -11800,7 +14169,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A522" t="s">
         <v>15</v>
       </c>
@@ -11814,7 +14183,7 @@
         <v>0.17647058823529399</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A523" t="s">
         <v>27</v>
       </c>
@@ -11828,7 +14197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A524" t="s">
         <v>15</v>
       </c>
@@ -11842,7 +14211,7 @@
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A525" t="s">
         <v>17</v>
       </c>
@@ -11856,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A526" t="s">
         <v>8</v>
       </c>
@@ -11870,7 +14239,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A527" t="s">
         <v>14</v>
       </c>
@@ -11884,7 +14253,7 @@
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A528" t="s">
         <v>26</v>
       </c>
@@ -11898,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A529" t="s">
         <v>16</v>
       </c>
@@ -11912,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A530" t="s">
         <v>13</v>
       </c>
@@ -11926,7 +14295,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A531" t="s">
         <v>25</v>
       </c>
@@ -11940,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A532" t="s">
         <v>28</v>
       </c>
@@ -11954,7 +14323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A533" t="s">
         <v>30</v>
       </c>
@@ -11968,7 +14337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A534" t="s">
         <v>37</v>
       </c>
@@ -11982,7 +14351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A535" t="s">
         <v>29</v>
       </c>
@@ -11996,7 +14365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A536" t="s">
         <v>22</v>
       </c>
@@ -12010,7 +14379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A537" t="s">
         <v>32</v>
       </c>
@@ -12024,7 +14393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A538" t="s">
         <v>28</v>
       </c>
@@ -12038,7 +14407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A539" t="s">
         <v>4</v>
       </c>
@@ -12052,7 +14421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A540" t="s">
         <v>28</v>
       </c>
@@ -12066,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A541" t="s">
         <v>47</v>
       </c>
@@ -12080,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A542" t="s">
         <v>48</v>
       </c>
@@ -12094,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A543" t="s">
         <v>66</v>
       </c>
@@ -12108,7 +14477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A544" t="s">
         <v>67</v>
       </c>
@@ -12122,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A545" t="s">
         <v>31</v>
       </c>
@@ -12136,7 +14505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A546" t="s">
         <v>29</v>
       </c>
@@ -12150,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A547" t="s">
         <v>47</v>
       </c>
@@ -12164,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A548" t="s">
         <v>68</v>
       </c>
@@ -12178,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A549" t="s">
         <v>69</v>
       </c>
@@ -12192,7 +14561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A550" t="s">
         <v>46</v>
       </c>
@@ -12206,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A551" t="s">
         <v>12</v>
       </c>
@@ -12220,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A552" t="s">
         <v>24</v>
       </c>
@@ -12234,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A553" t="s">
         <v>36</v>
       </c>
@@ -12248,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A554" t="s">
         <v>67</v>
       </c>
@@ -12262,7 +14631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A555" t="s">
         <v>47</v>
       </c>
@@ -12276,7 +14645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A556" t="s">
         <v>57</v>
       </c>
@@ -12290,7 +14659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A557" t="s">
         <v>24</v>
       </c>
@@ -12304,7 +14673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A558" t="s">
         <v>29</v>
       </c>
@@ -21260,6 +23629,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D558">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="EASYJET"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A7:D524">
       <sortCondition ref="A1:A558"/>
     </sortState>
@@ -21272,8 +23646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3538"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3538"/>
+    <sheetView topLeftCell="A2697" workbookViewId="0">
+      <selection activeCell="D2713" sqref="D2713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -70819,8 +73193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="C44" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -71080,12 +73454,12 @@
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D37" t="s">
         <v>79</v>
       </c>
@@ -71093,7 +73467,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D38" t="s">
         <v>80</v>
       </c>
@@ -71101,7 +73475,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D39" t="s">
         <v>81</v>
       </c>
@@ -71109,7 +73483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.5">
       <c r="E41" s="4" t="s">
         <v>76</v>
       </c>
@@ -71120,38 +73494,41 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D42" t="s">
         <v>83</v>
       </c>
       <c r="E42" s="4">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="F42" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G42" s="4">
         <v>500</v>
       </c>
-      <c r="G42" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C44" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B45" t="s">
         <v>74</v>
       </c>
@@ -71162,200 +73539,240 @@
         <f t="array" ref="D45:D55">FREQUENCY(bayesValidationFull!D:D,Graphics!C$45:C$55)</f>
         <v>1581</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45">
+        <f>D45/SUM(D$45:D$55)</f>
+        <v>0.44838343732274533</v>
+      </c>
+      <c r="F45" s="4">
         <f>E$42*($C45*$E$37+$E$38)+$E$39</f>
-        <v>1005</v>
-      </c>
-      <c r="F45" s="4">
+        <v>805</v>
+      </c>
+      <c r="G45" s="4">
         <f>F$42*($C45*$E$37+$E$38)+$E$39</f>
+        <v>205</v>
+      </c>
+      <c r="H45" s="4">
+        <f>G$42*($C45*$E$37+$E$38)+$E$39</f>
         <v>55</v>
       </c>
-      <c r="G45" s="4">
-        <f>G$42*($C45*$E$37+$E$38)+$E$39</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C46" s="5">
         <v>0.1</v>
       </c>
       <c r="D46" s="4">
         <v>659</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46">
+        <f>E45+D46/SUM(D$45:D$55)</f>
+        <v>0.63528077141236527</v>
+      </c>
+      <c r="F46" s="4">
         <f>E$42*($C46*$E$37+$E$38)+$E$39</f>
-        <v>2105</v>
-      </c>
-      <c r="F46" s="4">
+        <v>1685.0000000000002</v>
+      </c>
+      <c r="G46" s="4">
         <f>F$42*($C46*$E$37+$E$38)+$E$39</f>
+        <v>425.00000000000006</v>
+      </c>
+      <c r="H46" s="4">
+        <f>G$42*($C46*$E$37+$E$38)+$E$39</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="G46" s="4">
-        <f>G$42*($C46*$E$37+$E$38)+$E$39</f>
-        <v>26.000000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C47" s="5">
         <v>0.2</v>
       </c>
       <c r="D47" s="4">
         <v>560</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47">
+        <f t="shared" ref="E47:E55" si="0">E46+D47/SUM(D$45:D$55)</f>
+        <v>0.79410096426545662</v>
+      </c>
+      <c r="F47" s="4">
         <f>E$42*($C47*$E$37+$E$38)+$E$39</f>
-        <v>3205.0000000000005</v>
-      </c>
-      <c r="F47" s="4">
+        <v>2565.0000000000005</v>
+      </c>
+      <c r="G47" s="4">
         <f>F$42*($C47*$E$37+$E$38)+$E$39</f>
+        <v>645.00000000000011</v>
+      </c>
+      <c r="H47" s="4">
+        <f>G$42*($C47*$E$37+$E$38)+$E$39</f>
         <v>165.00000000000003</v>
       </c>
-      <c r="G47" s="4">
-        <f>G$42*($C47*$E$37+$E$38)+$E$39</f>
-        <v>37.000000000000007</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C48" s="5">
         <v>0.3</v>
       </c>
       <c r="D48" s="4">
         <v>365</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0.89761769710720363</v>
+      </c>
+      <c r="F48" s="4">
         <f>E$42*($C48*$E$37+$E$38)+$E$39</f>
-        <v>4305.0000000000009</v>
-      </c>
-      <c r="F48" s="4">
+        <v>3445.0000000000005</v>
+      </c>
+      <c r="G48" s="4">
         <f>F$42*($C48*$E$37+$E$38)+$E$39</f>
+        <v>865.00000000000011</v>
+      </c>
+      <c r="H48" s="4">
+        <f>G$42*($C48*$E$37+$E$38)+$E$39</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="G48" s="4">
-        <f>G$42*($C48*$E$37+$E$38)+$E$39</f>
-        <v>48.000000000000007</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C49" s="5">
         <v>0.4</v>
       </c>
       <c r="D49" s="4">
         <v>243</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0.96653431650595578</v>
+      </c>
+      <c r="F49" s="4">
         <f>E$42*($C49*$E$37+$E$38)+$E$39</f>
-        <v>5405</v>
-      </c>
-      <c r="F49" s="4">
+        <v>4325</v>
+      </c>
+      <c r="G49" s="4">
         <f>F$42*($C49*$E$37+$E$38)+$E$39</f>
+        <v>1085</v>
+      </c>
+      <c r="H49" s="4">
+        <f>G$42*($C49*$E$37+$E$38)+$E$39</f>
         <v>275</v>
       </c>
-      <c r="G49" s="4">
-        <f>G$42*($C49*$E$37+$E$38)+$E$39</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C50" s="5">
         <v>0.5</v>
       </c>
       <c r="D50" s="4">
         <v>70</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0.98638684061259219</v>
+      </c>
+      <c r="F50" s="4">
         <f>E$42*($C50*$E$37+$E$38)+$E$39</f>
-        <v>6505</v>
-      </c>
-      <c r="F50" s="4">
+        <v>5205</v>
+      </c>
+      <c r="G50" s="4">
         <f>F$42*($C50*$E$37+$E$38)+$E$39</f>
+        <v>1305</v>
+      </c>
+      <c r="H50" s="4">
+        <f>G$42*($C50*$E$37+$E$38)+$E$39</f>
         <v>330</v>
       </c>
-      <c r="G50" s="4">
-        <f>G$42*($C50*$E$37+$E$38)+$E$39</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C51" s="5">
         <v>0.6</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0.98638684061259219</v>
+      </c>
+      <c r="F51" s="4">
         <f>E$42*($C51*$E$37+$E$38)+$E$39</f>
-        <v>7605</v>
-      </c>
-      <c r="F51" s="4">
+        <v>6085</v>
+      </c>
+      <c r="G51" s="4">
         <f>F$42*($C51*$E$37+$E$38)+$E$39</f>
+        <v>1525</v>
+      </c>
+      <c r="H51" s="4">
+        <f>G$42*($C51*$E$37+$E$38)+$E$39</f>
         <v>385</v>
       </c>
-      <c r="G51" s="4">
-        <f>G$42*($C51*$E$37+$E$38)+$E$39</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C52" s="5">
         <v>0.7</v>
       </c>
       <c r="D52" s="4">
         <v>27</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0.99404424276800907</v>
+      </c>
+      <c r="F52" s="4">
         <f>E$42*($C52*$E$37+$E$38)+$E$39</f>
-        <v>8705</v>
-      </c>
-      <c r="F52" s="4">
+        <v>6965</v>
+      </c>
+      <c r="G52" s="4">
         <f>F$42*($C52*$E$37+$E$38)+$E$39</f>
+        <v>1745</v>
+      </c>
+      <c r="H52" s="4">
+        <f>G$42*($C52*$E$37+$E$38)+$E$39</f>
         <v>440</v>
       </c>
-      <c r="G52" s="4">
-        <f>G$42*($C52*$E$37+$E$38)+$E$39</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C53" s="5">
         <v>0.8</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0.99404424276800907</v>
+      </c>
+      <c r="F53" s="4">
         <f>E$42*($C53*$E$37+$E$38)+$E$39</f>
-        <v>9805.0000000000018</v>
-      </c>
-      <c r="F53" s="4">
+        <v>7845.0000000000009</v>
+      </c>
+      <c r="G53" s="4">
         <f>F$42*($C53*$E$37+$E$38)+$E$39</f>
+        <v>1965.0000000000002</v>
+      </c>
+      <c r="H53" s="4">
+        <f>G$42*($C53*$E$37+$E$38)+$E$39</f>
         <v>495.00000000000006</v>
       </c>
-      <c r="G53" s="4">
-        <f>G$42*($C53*$E$37+$E$38)+$E$39</f>
-        <v>103.00000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C54" s="5">
         <v>0.9</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0.99404424276800907</v>
+      </c>
+      <c r="F54" s="4">
         <f>E$42*($C54*$E$37+$E$38)+$E$39</f>
-        <v>10905</v>
-      </c>
-      <c r="F54" s="4">
+        <v>8725</v>
+      </c>
+      <c r="G54" s="4">
         <f>F$42*($C54*$E$37+$E$38)+$E$39</f>
+        <v>2185</v>
+      </c>
+      <c r="H54" s="4">
+        <f>G$42*($C54*$E$37+$E$38)+$E$39</f>
         <v>550</v>
       </c>
-      <c r="G54" s="4">
-        <f>G$42*($C54*$E$37+$E$38)+$E$39</f>
-        <v>114.00000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B55" t="s">
         <v>75</v>
       </c>
@@ -71365,31 +73782,35 @@
       <c r="D55" s="4">
         <v>21</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
         <f>E$42*($C55*$E$37+$E$38)+$E$39</f>
-        <v>12005.000000000002</v>
-      </c>
-      <c r="F55" s="4">
+        <v>9605.0000000000018</v>
+      </c>
+      <c r="G55" s="4">
         <f>F$42*($C55*$E$37+$E$38)+$E$39</f>
+        <v>2405.0000000000005</v>
+      </c>
+      <c r="H55" s="4">
+        <f>G$42*($C55*$E$37+$E$38)+$E$39</f>
         <v>605.00000000000011</v>
       </c>
-      <c r="G55" s="4">
-        <f>G$42*($C55*$E$37+$E$38)+$E$39</f>
-        <v>125.00000000000001</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E45:E55">
+  <conditionalFormatting sqref="F45:F55">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>$E$42</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F55">
+  <conditionalFormatting sqref="G45:G55">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>$F$42</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G55">
+  <conditionalFormatting sqref="H45:H55">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>$G$42</formula>
     </cfRule>

--- a/unchained-flight-insurance-web/bayesValidation.xlsx
+++ b/unchained-flight-insurance-web/bayesValidation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\git\unchained-flight-insurance\unchained-flight-insurance-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{ECC4613F-8499-4FEA-BAB5-9220ABCBACD4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF19E917-6FBD-4C22-A10D-6E33FB1EBFE1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10233" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bayesValidation" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bayesValidation!$A$1:$D$558</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11685" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11685" uniqueCount="88">
   <si>
     <t>companyName</t>
   </si>
@@ -281,11 +281,20 @@
   <si>
     <t>cumulative number of flights [%]</t>
   </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2440,7 +2449,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ultimate</c:v>
+                  <c:v>Gold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2448,7 +2457,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2551,7 +2560,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Medium</c:v>
+                  <c:v>Silver</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2559,7 +2568,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2662,7 +2671,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Basic</c:v>
+                  <c:v>Bronze</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2670,7 +2679,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6862,7 +6871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D3538"/>
   <sheetViews>
@@ -23628,7 +23637,7 @@
       <c r="B3538"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D558">
+  <autoFilter ref="A1:D558" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="EASYJET"/>
@@ -23643,7 +23652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3538"/>
   <sheetViews>
     <sheetView topLeftCell="A2697" workbookViewId="0">
@@ -73190,11 +73199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C44" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -73519,13 +73528,13 @@
         <v>84</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.5">
@@ -73544,15 +73553,15 @@
         <v>0.44838343732274533</v>
       </c>
       <c r="F45" s="4">
-        <f>E$42*($C45*$E$37+$E$38)+$E$39</f>
+        <f t="shared" ref="F45:H55" si="0">E$42*($C45*$E$37+$E$38)+$E$39</f>
         <v>805</v>
       </c>
       <c r="G45" s="4">
-        <f>F$42*($C45*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>205</v>
       </c>
       <c r="H45" s="4">
-        <f>G$42*($C45*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
@@ -73568,15 +73577,15 @@
         <v>0.63528077141236527</v>
       </c>
       <c r="F46" s="4">
-        <f>E$42*($C46*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>1685.0000000000002</v>
       </c>
       <c r="G46" s="4">
-        <f>F$42*($C46*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>425.00000000000006</v>
       </c>
       <c r="H46" s="4">
-        <f>G$42*($C46*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>110.00000000000001</v>
       </c>
     </row>
@@ -73588,19 +73597,19 @@
         <v>560</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E55" si="0">E46+D47/SUM(D$45:D$55)</f>
+        <f t="shared" ref="E47:E55" si="1">E46+D47/SUM(D$45:D$55)</f>
         <v>0.79410096426545662</v>
       </c>
       <c r="F47" s="4">
-        <f>E$42*($C47*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>2565.0000000000005</v>
       </c>
       <c r="G47" s="4">
-        <f>F$42*($C47*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>645.00000000000011</v>
       </c>
       <c r="H47" s="4">
-        <f>G$42*($C47*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>165.00000000000003</v>
       </c>
     </row>
@@ -73612,19 +73621,19 @@
         <v>365</v>
       </c>
       <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0.89761769710720363</v>
+      </c>
+      <c r="F48" s="4">
         <f t="shared" si="0"/>
-        <v>0.89761769710720363</v>
-      </c>
-      <c r="F48" s="4">
-        <f>E$42*($C48*$E$37+$E$38)+$E$39</f>
         <v>3445.0000000000005</v>
       </c>
       <c r="G48" s="4">
-        <f>F$42*($C48*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>865.00000000000011</v>
       </c>
       <c r="H48" s="4">
-        <f>G$42*($C48*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>220.00000000000003</v>
       </c>
     </row>
@@ -73636,19 +73645,19 @@
         <v>243</v>
       </c>
       <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0.96653431650595578</v>
+      </c>
+      <c r="F49" s="4">
         <f t="shared" si="0"/>
-        <v>0.96653431650595578</v>
-      </c>
-      <c r="F49" s="4">
-        <f>E$42*($C49*$E$37+$E$38)+$E$39</f>
         <v>4325</v>
       </c>
       <c r="G49" s="4">
-        <f>F$42*($C49*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>1085</v>
       </c>
       <c r="H49" s="4">
-        <f>G$42*($C49*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
     </row>
@@ -73660,19 +73669,19 @@
         <v>70</v>
       </c>
       <c r="E50">
+        <f t="shared" si="1"/>
+        <v>0.98638684061259219</v>
+      </c>
+      <c r="F50" s="4">
         <f t="shared" si="0"/>
-        <v>0.98638684061259219</v>
-      </c>
-      <c r="F50" s="4">
-        <f>E$42*($C50*$E$37+$E$38)+$E$39</f>
         <v>5205</v>
       </c>
       <c r="G50" s="4">
-        <f>F$42*($C50*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>1305</v>
       </c>
       <c r="H50" s="4">
-        <f>G$42*($C50*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
     </row>
@@ -73684,19 +73693,19 @@
         <v>0</v>
       </c>
       <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0.98638684061259219</v>
+      </c>
+      <c r="F51" s="4">
         <f t="shared" si="0"/>
-        <v>0.98638684061259219</v>
-      </c>
-      <c r="F51" s="4">
-        <f>E$42*($C51*$E$37+$E$38)+$E$39</f>
         <v>6085</v>
       </c>
       <c r="G51" s="4">
-        <f>F$42*($C51*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>1525</v>
       </c>
       <c r="H51" s="4">
-        <f>G$42*($C51*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>385</v>
       </c>
     </row>
@@ -73708,19 +73717,19 @@
         <v>27</v>
       </c>
       <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0.99404424276800907</v>
+      </c>
+      <c r="F52" s="4">
         <f t="shared" si="0"/>
-        <v>0.99404424276800907</v>
-      </c>
-      <c r="F52" s="4">
-        <f>E$42*($C52*$E$37+$E$38)+$E$39</f>
         <v>6965</v>
       </c>
       <c r="G52" s="4">
-        <f>F$42*($C52*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>1745</v>
       </c>
       <c r="H52" s="4">
-        <f>G$42*($C52*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>440</v>
       </c>
     </row>
@@ -73732,19 +73741,19 @@
         <v>0</v>
       </c>
       <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0.99404424276800907</v>
+      </c>
+      <c r="F53" s="4">
         <f t="shared" si="0"/>
-        <v>0.99404424276800907</v>
-      </c>
-      <c r="F53" s="4">
-        <f>E$42*($C53*$E$37+$E$38)+$E$39</f>
         <v>7845.0000000000009</v>
       </c>
       <c r="G53" s="4">
-        <f>F$42*($C53*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>1965.0000000000002</v>
       </c>
       <c r="H53" s="4">
-        <f>G$42*($C53*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>495.00000000000006</v>
       </c>
     </row>
@@ -73756,19 +73765,19 @@
         <v>0</v>
       </c>
       <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0.99404424276800907</v>
+      </c>
+      <c r="F54" s="4">
         <f t="shared" si="0"/>
-        <v>0.99404424276800907</v>
-      </c>
-      <c r="F54" s="4">
-        <f>E$42*($C54*$E$37+$E$38)+$E$39</f>
         <v>8725</v>
       </c>
       <c r="G54" s="4">
-        <f>F$42*($C54*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>2185</v>
       </c>
       <c r="H54" s="4">
-        <f>G$42*($C54*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>550</v>
       </c>
     </row>
@@ -73783,19 +73792,19 @@
         <v>21</v>
       </c>
       <c r="E55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F55" s="4">
-        <f>E$42*($C55*$E$37+$E$38)+$E$39</f>
         <v>9605.0000000000018</v>
       </c>
       <c r="G55" s="4">
-        <f>F$42*($C55*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>2405.0000000000005</v>
       </c>
       <c r="H55" s="4">
-        <f>G$42*($C55*$E$37+$E$38)+$E$39</f>
+        <f t="shared" si="0"/>
         <v>605.00000000000011</v>
       </c>
     </row>
